--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmiggit\code\AmaurySalles\projectwind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156E29A-E2A4-414E-936F-DC17B2A0B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A148E7F-E033-43E6-84F5-27A6D98BBDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Neurons" sheetId="2" r:id="rId1"/>
+    <sheet name="Layers" sheetId="3" r:id="rId2"/>
+    <sheet name="Dropouts" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>Models</t>
   </si>
@@ -72,12 +74,27 @@
   <si>
     <t>Epoch</t>
   </si>
+  <si>
+    <t>3x0.3</t>
+  </si>
+  <si>
+    <t>2x0.2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>3x0.1</t>
+  </si>
+  <si>
+    <t>3x0.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +109,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,14 +136,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,21 +174,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2743855</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1754676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FA68F0-F1ED-48D9-9950-AD85FCF665C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9E1A99-830A-41F9-8877-31086190B8AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -176,8 +204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7185660" y="396240"/>
-          <a:ext cx="2660035" cy="1724196"/>
+          <a:off x="6560820" y="4038600"/>
+          <a:ext cx="2811780" cy="1724196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -189,22 +217,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26214</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>4122420</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1722120</xdr:rowOff>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1798320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B3A217-4EA8-4F87-9F78-3D6F9224C9A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAF2FE5-B598-445C-B38C-5C97836C1E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -227,8 +255,1204 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10073640" y="391974"/>
+          <a:off x="9456420" y="4110534"/>
           <a:ext cx="4114800" cy="1695906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47651</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBF6E09-859A-4D5A-8673-FCF711B8153C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6524651" y="5836920"/>
+          <a:ext cx="2847948" cy="1889760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAB3CA1-418E-41B1-A74C-FE31DF6A98F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9517379" y="7711440"/>
+          <a:ext cx="4053841" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2948940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1813560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2405A2-5E4C-444D-AAC7-4BABF7354F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9425940" y="2307076"/>
+          <a:ext cx="4168140" cy="1693424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98308</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2865120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1805940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC88EA-B7A3-45D8-884F-17D4A9447ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6575308" y="2263140"/>
+          <a:ext cx="2766812" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87146</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2872740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1783080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6012F006-2657-49DC-9C1A-9A97FE166D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6564146" y="5920740"/>
+          <a:ext cx="2785594" cy="1691640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1798319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D7312-2AA0-4118-8C2B-927E0A428E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9448800" y="5939641"/>
+          <a:ext cx="4122420" cy="1687978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2910840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A3825F-57F5-4E27-A811-7351C02B1075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6614160" y="384560"/>
+          <a:ext cx="2773680" cy="1840479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1760219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA32752-19CE-455F-BA97-32253A2DB390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9494520" y="457746"/>
+          <a:ext cx="4061460" cy="1668233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1754676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4760BA-98ED-46B1-BBA2-6E60016B6B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560820" y="4038600"/>
+          <a:ext cx="2811780" cy="1724196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1798320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21305DAD-4FD8-48FF-AB7B-D752B6FEA994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9456420" y="4110534"/>
+          <a:ext cx="4114800" cy="1695906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96D8E56-9137-4713-8CFE-670C782FD83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6524651" y="5836920"/>
+          <a:ext cx="2847948" cy="1889760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4033872</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234BCE77-D5DA-40EE-9AE2-BB8EF510A75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9517379" y="5890260"/>
+          <a:ext cx="3957673" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2948940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1813560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E4BB82-EB79-411D-A256-2989F2125170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9425940" y="2307076"/>
+          <a:ext cx="4168140" cy="1693424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98308</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2865120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1805940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16017549-1BE4-45E8-83DA-26503ED1F741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6575308" y="2263140"/>
+          <a:ext cx="2766812" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1754676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FA68F0-F1ED-48D9-9950-AD85FCF665C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560820" y="4038600"/>
+          <a:ext cx="2811780" cy="1724196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1798320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B3A217-4EA8-4F87-9F78-3D6F9224C9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9456420" y="2289354"/>
+          <a:ext cx="4114800" cy="1695906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237F22EE-EE4E-4D0E-BC1C-EAB1F3661CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6524651" y="4015740"/>
+          <a:ext cx="2847948" cy="1889760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4033872</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98C8ECF-9EE8-48FF-9BEC-0C7A61D261E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9517379" y="4069080"/>
+          <a:ext cx="3957673" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2948940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1813560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA4B92-02C7-42E1-92FB-2C957402E0BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9425940" y="2307076"/>
+          <a:ext cx="4168140" cy="1693424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98308</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2865120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1805940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F7BE61-9F01-433A-9F28-735BCB1C563C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6575308" y="2263140"/>
+          <a:ext cx="2766812" cy="1729740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,60 +1770,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181DC8F0-0260-4335-BDDC-AF663614CEC9}">
-  <dimension ref="B2:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D516D8AE-4F6F-4B4A-B6B3-1B4E29B81092}">
+  <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
     <col min="7" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="1.88671875" customWidth="1"/>
     <col min="13" max="13" width="43.21875" customWidth="1"/>
     <col min="14" max="14" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,27 +1833,28 @@
       <c r="D3" s="1">
         <v>256</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>317.9153</v>
-      </c>
-      <c r="H3" s="1">
-        <v>318.41359999999997</v>
-      </c>
-      <c r="I3" s="1">
-        <v>418.72070000000002</v>
-      </c>
-      <c r="J3" s="1">
-        <v>419.22030000000001</v>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>486.98270000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>487.48169999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>496.2072</v>
+      </c>
+      <c r="J3" s="2">
+        <v>496.70670000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>116</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,15 +1864,470 @@
       <c r="D4" s="1">
         <v>256</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>317.9153</v>
+      </c>
+      <c r="H4" s="1">
+        <v>318.41359999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>418.72070000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>419.22030000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>116</v>
+      </c>
+      <c r="N4"/>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>645.46019999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>645.96010000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>617.81320000000005</v>
+      </c>
+      <c r="J5" s="2">
+        <v>618.31320000000005</v>
+      </c>
+      <c r="L5" s="1">
+        <v>56</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>256</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>323.90940000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>324.4074</v>
+      </c>
+      <c r="I6" s="2">
+        <v>446.41680000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>446.9162</v>
+      </c>
+      <c r="L6" s="1">
+        <v>111</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>256</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>322.16550000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>322.6644</v>
+      </c>
+      <c r="I7" s="2">
+        <v>440.24369999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>440.74329999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>130</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1"/>
+    <row r="9" spans="2:14" s="1" customFormat="1"/>
+    <row r="10" spans="2:14" s="1" customFormat="1"/>
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+    <row r="12" spans="2:14" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6876622-E52D-4AB6-9455-DC40AC39EC15}">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
+    <col min="7" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="13" max="13" width="43.21875" customWidth="1"/>
+    <col min="14" max="14" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>645.46019999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>645.96010000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>617.81320000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>618.31320000000005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>56</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>317.9153</v>
+      </c>
+      <c r="H5" s="1">
+        <v>318.41359999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>418.72070000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>419.22030000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>116</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>256</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>322.16550000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>322.6644</v>
+      </c>
+      <c r="I6" s="2">
+        <v>440.24369999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>440.74329999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>130</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1"/>
+    <row r="8" spans="2:14" s="1" customFormat="1"/>
+    <row r="9" spans="2:14" s="1" customFormat="1"/>
+    <row r="10" spans="2:14" s="1" customFormat="1"/>
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181DC8F0-0260-4335-BDDC-AF663614CEC9}">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
+    <col min="7" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="13" max="13" width="43.21875" customWidth="1"/>
+    <col min="14" max="14" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>645.46019999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>645.96010000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>617.81320000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>618.31320000000005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>56</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>317.9153</v>
+      </c>
+      <c r="H5" s="1">
+        <v>318.41359999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>418.72070000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>419.22030000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>116</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>256</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>322.16550000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>322.6644</v>
+      </c>
+      <c r="I6" s="2">
+        <v>440.24369999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>440.74329999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>130</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1"/>
+    <row r="8" spans="2:14" s="1" customFormat="1"/>
+    <row r="9" spans="2:14" s="1" customFormat="1"/>
+    <row r="10" spans="2:14" s="1" customFormat="1"/>
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmiggit\code\AmaurySalles\projectwind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A148E7F-E033-43E6-84F5-27A6D98BBDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C592AF-EFEB-4C44-AEAD-75F4E90D87EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Neurons" sheetId="2" r:id="rId1"/>
-    <sheet name="Layers" sheetId="3" r:id="rId2"/>
-    <sheet name="Dropouts" sheetId="1" r:id="rId3"/>
+    <sheet name="Data &amp; Model" sheetId="7" r:id="rId1"/>
+    <sheet name="Neurons" sheetId="2" r:id="rId2"/>
+    <sheet name="Layers" sheetId="3" r:id="rId3"/>
+    <sheet name="Dropouts" sheetId="1" r:id="rId4"/>
+    <sheet name="Forecasting -num" sheetId="5" r:id="rId5"/>
+    <sheet name="Forecasting - state" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="65">
   <si>
     <t>Models</t>
   </si>
@@ -75,6 +78,9 @@
     <t>Epoch</t>
   </si>
   <si>
+    <t>train_loss</t>
+  </si>
+  <si>
     <t>3x0.3</t>
   </si>
   <si>
@@ -88,16 +94,399 @@
   </si>
   <si>
     <t>3x0.2</t>
+  </si>
+  <si>
+    <t>Numerical output</t>
+  </si>
+  <si>
+    <t>LSTM states output</t>
+  </si>
+  <si>
+    <t>Perf: 3
+FC: 2</t>
+  </si>
+  <si>
+    <t>train_mae</t>
+  </si>
+  <si>
+    <t>Perf: 4
+FC: 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Models</t>
+  </si>
+  <si>
+    <t>Wind_Y_vector_actual</t>
+  </si>
+  <si>
+    <t>Wind_X_vector_actuals</t>
+  </si>
+  <si>
+    <t>Wind_X_vector_forecast</t>
+  </si>
+  <si>
+    <t>Wind_Y_vector_forecast</t>
+  </si>
+  <si>
+    <t>Rotor_speed</t>
+  </si>
+  <si>
+    <t>Nacelle_X_vector_actual</t>
+  </si>
+  <si>
+    <t>Nacelle_Y_vector_actual</t>
+  </si>
+  <si>
+    <t>Blade_pitch</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>n_steps_out x 4</t>
+  </si>
+  <si>
+    <t>n_steps_out</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Data inputs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+n</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Concat
+</t>
+  </si>
+  <si>
+    <t>n_neurons x l_layers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 2</t>
+    </r>
+  </si>
+  <si>
+    <t>4x0.2</t>
+  </si>
+  <si>
+    <t>Perf: 16
+FC: 54
+Comb: 64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 54
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 54
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perf: 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FC: 54
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Perf: 
+128-64-
+32-16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FC: 54
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Perf: 
+16-32-64-128
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FC: 54
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <t>Perf: 16
+Comb: 64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perf: 32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FC: 54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Comb: 64</t>
+    </r>
+  </si>
+  <si>
+    <t>Perf: 32
+FC: 32
+Comb: 64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perf: 16+18d
+FC: 54
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comb: 34</t>
+    </r>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Wind Speed</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Temperature_forecast</t>
+  </si>
+  <si>
+    <t>Precipitation_forecast</t>
+  </si>
+  <si>
+    <t>Precipitation_actuals_API</t>
+  </si>
+  <si>
+    <t>Temperature_actuals_API</t>
+  </si>
+  <si>
+    <t>Wind_X_vector_forecast_API</t>
+  </si>
+  <si>
+    <t>Forecast
+(shifted inputs)</t>
+  </si>
+  <si>
+    <t>t-k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,16 +504,49 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -132,24 +554,694 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,111 +1265,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2895600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1754676</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9E1A99-830A-41F9-8877-31086190B8AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6560820" y="4038600"/>
-          <a:ext cx="2811780" cy="1724196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4130040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1798320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAF2FE5-B598-445C-B38C-5C97836C1E97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9456420" y="4110534"/>
-          <a:ext cx="4114800" cy="1695906"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
       <xdr:colOff>47651</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -302,7 +1289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -363,7 +1350,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -379,372 +1366,6 @@
         <a:xfrm>
           <a:off x="9517379" y="7711440"/>
           <a:ext cx="4053841" cy="1653540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2948940</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>120136</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1813560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2405A2-5E4C-444D-AAC7-4BABF7354F78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9425940" y="2307076"/>
-          <a:ext cx="4168140" cy="1693424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>98308</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2865120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1805940</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC88EA-B7A3-45D8-884F-17D4A9447ECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6575308" y="2263140"/>
-          <a:ext cx="2766812" cy="1729740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>87146</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2872740</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1783080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6012F006-2657-49DC-9C1A-9A97FE166D8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6564146" y="5920740"/>
-          <a:ext cx="2785594" cy="1691640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4130040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1798319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D7312-2AA0-4118-8C2B-927E0A428E55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9448800" y="5939641"/>
-          <a:ext cx="4122420" cy="1687978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>18800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2910840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A3825F-57F5-4E27-A811-7351C02B1075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6614160" y="384560"/>
-          <a:ext cx="2773680" cy="1840479"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1760219</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA32752-19CE-455F-BA97-32253A2DB390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9494520" y="457746"/>
-          <a:ext cx="4061460" cy="1668233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,6 +2074,1036 @@
         <a:xfrm>
           <a:off x="6575308" y="2263140"/>
           <a:ext cx="2766812" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2910840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92981D95-8606-4921-A6B3-7793E41EA75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6614160" y="384561"/>
+          <a:ext cx="2773680" cy="1855720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1805941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516874DD-0F49-4E0F-9635-D7C804CED023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9494520" y="457747"/>
+          <a:ext cx="4061460" cy="1713954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4130040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1744980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D277515-8215-44E7-B98D-CF880F3A43C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9486900" y="411480"/>
+          <a:ext cx="4084320" cy="1699260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4107180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F1D87D-6860-411C-8D7D-8954258775DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9494520" y="2295623"/>
+          <a:ext cx="4053840" cy="1712498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4130041</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037B35C4-A8C3-483B-AF10-1490768C16A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9441399" y="4084320"/>
+          <a:ext cx="4129822" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4099560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1722119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6890881-5798-4CEA-ACE7-4791A377F549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525000" y="5893388"/>
+          <a:ext cx="4015740" cy="1658031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1752600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2C750D-F86A-4C2F-9B06-7E4110749538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10949940" y="7692836"/>
+          <a:ext cx="4038600" cy="1710244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4087907</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1712259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C683A9F3-13FC-4FFC-9966-2AECE035CD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10936941" y="11346078"/>
+          <a:ext cx="4025154" cy="1643781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4069977</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1793390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F52F65-4A90-441D-951D-DF1E2486D1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10919012" y="13171371"/>
+          <a:ext cx="4025153" cy="1719454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4061012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1739153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1398EC26-E045-459A-9A1E-E0DD8E8F8B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10919011" y="15067007"/>
+          <a:ext cx="4016189" cy="1589417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4114801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBB818A-AE46-4EE6-8B2D-0EA23C6DD9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10910047" y="4061012"/>
+          <a:ext cx="4078942" cy="1798768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65005</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2859741</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1758873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29837FD2-E467-41A5-BEFD-7861D1E0D740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7971876" y="4105835"/>
+          <a:ext cx="2794736" cy="1651297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>93985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4069977</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1748118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B3CD6C-592F-432F-AA83-91D77DD0832E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10919011" y="5912079"/>
+          <a:ext cx="4025154" cy="1654133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53836</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2940423</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1775013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D93BB11-EE1E-4B3B-9921-A29A4B5B50CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7960707" y="7698982"/>
+          <a:ext cx="2886587" cy="1713960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4132731</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1801906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B372314-8BD2-43E3-9DE7-88D0569A81F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10910047" y="7691771"/>
+          <a:ext cx="4096872" cy="1748064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2904562</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1793692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89E2218-E30D-4870-9FB0-6A7457862F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987370" y="5961530"/>
+          <a:ext cx="2824063" cy="1650256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4145280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1729740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526CB3CD-005E-4446-8B1B-CF5A5DF6AE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9479280" y="5933680"/>
+          <a:ext cx="4107180" cy="1625360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,11 +3421,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2804C43-F2FA-40C8-82E5-2AEF3D65D292}">
+  <dimension ref="B2:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="18">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1">
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1">
+      <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="2:19" ht="14.4" customHeight="1">
+      <c r="B5" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="58"/>
+      <c r="C6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="58"/>
+      <c r="C7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="58"/>
+      <c r="C8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="58"/>
+      <c r="C9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="58"/>
+      <c r="C10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="58"/>
+      <c r="C11" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="58"/>
+      <c r="C12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="58"/>
+      <c r="C13" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1">
+      <c r="B14" s="59"/>
+      <c r="C14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="12"/>
+      <c r="C16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="12"/>
+      <c r="C17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1"/>
+    <row r="21" spans="2:11" ht="15" thickBot="1">
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="E22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="43"/>
+      <c r="C23" s="37"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="43"/>
+      <c r="C24" s="37"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="43"/>
+      <c r="C26" s="37"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="43"/>
+      <c r="C27" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="43"/>
+      <c r="C28" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="43"/>
+      <c r="C29" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="43"/>
+      <c r="C30" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="43"/>
+      <c r="C31" s="37"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="2:11" ht="15" thickBot="1">
+      <c r="B32" s="43"/>
+      <c r="C32" s="38"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="43"/>
+      <c r="C34" s="36"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="43"/>
+      <c r="C35" s="37"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1">
+      <c r="B36" s="54"/>
+      <c r="C36" s="41"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="F5:H14"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="F22:H32"/>
+    <mergeCell ref="I22:I36"/>
+    <mergeCell ref="J22:J36"/>
+    <mergeCell ref="K22:K36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="K5:K18"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="F15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I5:I18"/>
+    <mergeCell ref="J5:J18"/>
+    <mergeCell ref="B5:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D516D8AE-4F6F-4B4A-B6B3-1B4E29B81092}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1824,125 +3960,33 @@
       </c>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>256</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>486.98270000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>487.48169999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>496.2072</v>
-      </c>
-      <c r="J3" s="2">
-        <v>496.70670000000001</v>
-      </c>
-      <c r="L3" s="1">
-        <v>153</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>256</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>317.9153</v>
-      </c>
-      <c r="H4" s="1">
-        <v>318.41359999999997</v>
-      </c>
-      <c r="I4" s="1">
-        <v>418.72070000000002</v>
-      </c>
-      <c r="J4" s="1">
-        <v>419.22030000000001</v>
-      </c>
-      <c r="L4" s="1">
-        <v>116</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="N4"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>256</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2">
-        <v>645.46019999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>645.96010000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>617.81320000000005</v>
-      </c>
-      <c r="J5" s="2">
-        <v>618.31320000000005</v>
-      </c>
-      <c r="L5" s="1">
-        <v>56</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="M5"/>
       <c r="N5"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>256</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2">
-        <v>323.90940000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>324.4074</v>
-      </c>
-      <c r="I6" s="2">
-        <v>446.41680000000002</v>
-      </c>
-      <c r="J6" s="2">
-        <v>446.9162</v>
-      </c>
-      <c r="L6" s="1">
-        <v>111</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="M6"/>
       <c r="N6"/>
     </row>
@@ -1957,7 +4001,7 @@
         <v>256</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2">
         <v>322.16550000000001</v>
@@ -1989,8 +4033,1494 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6876622-E52D-4AB6-9455-DC40AC39EC15}">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
+    <col min="7" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="13" max="13" width="43.21875" customWidth="1"/>
+    <col min="14" max="14" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>645.46019999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>645.96010000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>617.81320000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>618.31320000000005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>56</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>317.9153</v>
+      </c>
+      <c r="H5" s="1">
+        <v>318.41359999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>418.72070000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>419.22030000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>116</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>256</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>322.16550000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>322.6644</v>
+      </c>
+      <c r="I6" s="2">
+        <v>440.24369999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>440.74329999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>130</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1"/>
+    <row r="8" spans="2:14" s="1" customFormat="1"/>
+    <row r="9" spans="2:14" s="1" customFormat="1"/>
+    <row r="10" spans="2:14" s="1" customFormat="1"/>
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181DC8F0-0260-4335-BDDC-AF663614CEC9}">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
+    <col min="7" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="13" max="13" width="43.21875" customWidth="1"/>
+    <col min="14" max="14" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>486.98270000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>487.48169999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>496.2072</v>
+      </c>
+      <c r="J3" s="2">
+        <v>496.70670000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>153</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>645.46019999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>645.96010000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>617.81320000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>618.31320000000005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>56</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>317.9153</v>
+      </c>
+      <c r="H5" s="1">
+        <v>318.41359999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>418.72070000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>419.22030000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>116</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>256</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>322.16550000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>322.6644</v>
+      </c>
+      <c r="I6" s="2">
+        <v>440.24369999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>440.74329999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>130</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1"/>
+    <row r="8" spans="2:14" s="1" customFormat="1"/>
+    <row r="9" spans="2:14" s="1" customFormat="1"/>
+    <row r="10" spans="2:14" s="1" customFormat="1"/>
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0A4B00-0CA8-46A5-BFBC-9FB0D21C769B}">
+  <dimension ref="B2:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" customWidth="1"/>
+    <col min="7" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="15" max="15" width="43.21875" customWidth="1"/>
+    <col min="16" max="16" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>141.7792</v>
+      </c>
+      <c r="J3" s="2">
+        <v>142.27699999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>144.9984</v>
+      </c>
+      <c r="L3" s="2">
+        <v>145.49639999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>200</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>128.03200000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>128.53039999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>135.7773</v>
+      </c>
+      <c r="L4" s="2">
+        <v>136.2756</v>
+      </c>
+      <c r="N4" s="1">
+        <v>200</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>96.210999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>96.707899999999995</v>
+      </c>
+      <c r="I5" s="2">
+        <v>123.6191</v>
+      </c>
+      <c r="J5" s="2">
+        <v>124.11709999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>122.9402</v>
+      </c>
+      <c r="L5" s="2">
+        <v>123.4384</v>
+      </c>
+      <c r="N5" s="1">
+        <v>374</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>87.270200000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>87.767099999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>109.0217</v>
+      </c>
+      <c r="J6" s="2">
+        <v>109.5189</v>
+      </c>
+      <c r="K6" s="2">
+        <v>113.5317</v>
+      </c>
+      <c r="L6" s="2">
+        <v>114.0294</v>
+      </c>
+      <c r="N6" s="1">
+        <v>500</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2">
+        <v>119.17319999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>119.67059999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>142.39699999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>142.89500000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>146.1944</v>
+      </c>
+      <c r="L7" s="2">
+        <v>146.6925</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2">
+        <v>162.0565</v>
+      </c>
+      <c r="J8" s="2">
+        <v>162.5548</v>
+      </c>
+      <c r="K8" s="2">
+        <v>169.2124</v>
+      </c>
+      <c r="L8" s="2">
+        <v>169.71080000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>200</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>97.061199999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>97.558099999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <v>165.83009999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>166.32810000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>168.9247</v>
+      </c>
+      <c r="L9" s="2">
+        <v>169.423</v>
+      </c>
+      <c r="N9" s="1">
+        <v>200</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>103.4286</v>
+      </c>
+      <c r="H10" s="2">
+        <v>103.9255</v>
+      </c>
+      <c r="I10" s="2">
+        <v>131.279</v>
+      </c>
+      <c r="J10" s="2">
+        <v>131.77610000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>133.41249999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>133.91059999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>200</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>102.8031</v>
+      </c>
+      <c r="H11" s="2">
+        <v>103.2997</v>
+      </c>
+      <c r="I11" s="2">
+        <v>127.34820000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>127.84520000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>133.33760000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>133.83529999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>200</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>93.841399999999993</v>
+      </c>
+      <c r="H12" s="2">
+        <v>94.337999999999994</v>
+      </c>
+      <c r="I12" s="2">
+        <v>148.38159999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>148.87950000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>146.28120000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>146.779</v>
+      </c>
+      <c r="N12" s="1">
+        <v>200</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>117.34910000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>117.84529999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>160.7236</v>
+      </c>
+      <c r="J13" s="2">
+        <v>161.221</v>
+      </c>
+      <c r="K13" s="2">
+        <v>165.34020000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>165.8381</v>
+      </c>
+      <c r="N13" s="1">
+        <v>200</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="2:16" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>111.9435</v>
+      </c>
+      <c r="H14" s="2">
+        <v>112.4393</v>
+      </c>
+      <c r="I14" s="2">
+        <v>147.81630000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>148.31219999999999</v>
+      </c>
+      <c r="K14" s="2">
+        <v>151.1575</v>
+      </c>
+      <c r="L14" s="2">
+        <v>151.6558</v>
+      </c>
+      <c r="N14" s="1">
+        <v>198</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="2:16" s="1" customFormat="1"/>
+    <row r="16" spans="2:16" s="1" customFormat="1"/>
+  </sheetData>
+  <conditionalFormatting sqref="I3:I4 I8:I9">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J4 J8:J9">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4 K8:K9">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L4 L8:L9">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4 G8">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4 H8">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I1048576 I1:I4 I8:I10">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J1048576 J1:J4 J8:J10">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K1048576 K1:K4 K8:K10">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L1048576 L1:L4 L8:L10">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L1048576 L1:L4 L8:L11">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K1048576 K1:K4 K8:K11">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J1048576 J1:J4 J8:J11">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I1048576 I1:I4 I8:I11">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L1048576 L1:L4 L8:L13">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K1048576 K1:K4 K8:K13">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J1048576 J1:J4 J8:J13">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I1048576 I1:I4 I8:I13">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H1048576 H1:H4 H8:H13">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G1048576 G1:G4 G8:G13">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L1048576 L1:L4">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K1048576 K1:K4">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J1048576 J1:J4">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I1048576 I1:I4">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H1048576 H1:H4">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G1048576 G1:G4">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G1048576 G1:G5">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H1048576 H1:H5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I1048576 I1:I5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J1048576 J1:J5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K1048576 K1:K5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L1048576 L1:L5">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G6 G8:G1048576">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H6 H8:H1048576">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I6 I8:I1048576">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J6 J8:J1048576">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K6 K8:K1048576">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L6 L8:L1048576">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD5F94-9E14-4DC4-A0DA-5A6669DB9C70}">
   <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2044,282 +5574,59 @@
       </c>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>205.7688</v>
+      </c>
+      <c r="H3" s="2">
+        <v>206.26820000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>209.59520000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>210.09450000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>200</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>256</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>645.46019999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>645.96010000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>617.81320000000005</v>
-      </c>
-      <c r="J4" s="2">
-        <v>618.31320000000005</v>
-      </c>
-      <c r="L4" s="1">
-        <v>56</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="M4"/>
       <c r="N4"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>256</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>317.9153</v>
-      </c>
-      <c r="H5" s="1">
-        <v>318.41359999999997</v>
-      </c>
-      <c r="I5" s="1">
-        <v>418.72070000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>419.22030000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>116</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="M5"/>
       <c r="N5"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>256</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>322.16550000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>322.6644</v>
-      </c>
-      <c r="I6" s="2">
-        <v>440.24369999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>440.74329999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>130</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="2:14" s="1" customFormat="1"/>
-    <row r="8" spans="2:14" s="1" customFormat="1"/>
-    <row r="9" spans="2:14" s="1" customFormat="1"/>
-    <row r="10" spans="2:14" s="1" customFormat="1"/>
-    <row r="11" spans="2:14" s="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181DC8F0-0260-4335-BDDC-AF663614CEC9}">
-  <dimension ref="B2:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" customWidth="1"/>
-    <col min="7" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="1.88671875" customWidth="1"/>
-    <col min="13" max="13" width="43.21875" customWidth="1"/>
-    <col min="14" max="14" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>256</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>256</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>645.46019999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>645.96010000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>617.81320000000005</v>
-      </c>
-      <c r="J4" s="2">
-        <v>618.31320000000005</v>
-      </c>
-      <c r="L4" s="1">
-        <v>56</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>256</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>317.9153</v>
-      </c>
-      <c r="H5" s="1">
-        <v>318.41359999999997</v>
-      </c>
-      <c r="I5" s="1">
-        <v>418.72070000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>419.22030000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>116</v>
-      </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="143.4" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>256</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>322.16550000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>322.6644</v>
-      </c>
-      <c r="I6" s="2">
-        <v>440.24369999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>440.74329999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>130</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="M6"/>
       <c r="N6"/>
     </row>

--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmiggit\code\AmaurySalles\projectwind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12F69D-B058-4CDE-A5EE-5940FA9E633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F3D54-9313-44C3-B03D-50B1DBDA42D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data &amp; Model" sheetId="7" r:id="rId1"/>
     <sheet name="Numerical" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
+    <sheet name="Weather Forecast" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
   <si>
     <t>LSTM</t>
   </si>
@@ -317,6 +319,50 @@
   </si>
   <si>
     <t>Weather Fcast</t>
+  </si>
+  <si>
+    <t>1x0.2</t>
+  </si>
+  <si>
+    <t>1X32LSTM
+2x64D</t>
+  </si>
+  <si>
+    <t>3x64LSTM</t>
+  </si>
+  <si>
+    <t>1x144
+1x72
+1x12</t>
+  </si>
+  <si>
+    <t>1x64D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1X32LSTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2x128D</t>
+    </r>
+  </si>
+  <si>
+    <t>1X64LSTM
+2x64D</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1371,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1518,7 +1606,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12795266" y="2491740"/>
+          <a:off x="12894326" y="2491740"/>
           <a:ext cx="2749534" cy="1617820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1784,16 +1872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>117626</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>2842260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1775460</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1823,8 +1911,501 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12919226" y="6118860"/>
-          <a:ext cx="2724634" cy="1691640"/>
+          <a:off x="4221480" y="6118860"/>
+          <a:ext cx="11422380" cy="7091798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109147</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2842259</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5261CAE-4533-42CC-AF4E-7B73D236BAB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12910747" y="632460"/>
+          <a:ext cx="2733112" cy="1813560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127743</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4093538</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1798320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0010568E-00C2-4B96-9015-F7ADCE58E56C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8745963" y="640080"/>
+          <a:ext cx="3965795" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4122420</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC103CD-9FA1-4225-B686-DEC9B9B4F431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8686800" y="2418622"/>
+          <a:ext cx="4053840" cy="1764758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1798319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3EEC51-E41E-4AFC-AF31-FAA44F2C53EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12893039" y="2502208"/>
+          <a:ext cx="2766061" cy="1688791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4137660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1760220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D9D75A-33E3-469B-86BB-D5D164566531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8618220" y="4220336"/>
+          <a:ext cx="4137660" cy="1753744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101634</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2849879</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F3ED33-AE69-49B5-B435-2FB6B79B0833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12903234" y="4259580"/>
+          <a:ext cx="2748245" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2834640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1798320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD32BA07-51EA-4B3B-B936-0B7CA18B5D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12888334" y="6103620"/>
+          <a:ext cx="2747906" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4122420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1783080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059CD8BA-8AFB-436B-B3BA-BC6D291D21DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8663940" y="6036604"/>
+          <a:ext cx="4076700" cy="1781516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2804C43-F2FA-40C8-82E5-2AEF3D65D292}">
   <dimension ref="B2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
@@ -2752,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD5F94-9E14-4DC4-A0DA-5A6669DB9C70}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3124,6 +3705,640 @@
     <mergeCell ref="I2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52876908-678B-4D94-8A35-6BA82775DAE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8E1B3D-154F-4486-84C7-26B42CDD2CB0}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10" style="53" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="53" customWidth="1"/>
+    <col min="9" max="14" width="9" style="53" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61" customWidth="1"/>
+    <col min="17" max="17" width="43.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="C2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="B3" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.19070000000000001</v>
+      </c>
+      <c r="O4" s="54">
+        <v>146</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.1734</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="O5" s="54">
+        <v>62</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1331</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.1888</v>
+      </c>
+      <c r="O6" s="54">
+        <v>55</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="O7" s="54">
+        <v>63</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="54"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="54"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="54"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="54"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="54"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="54"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="54"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="54"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="54"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="143.4" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="54"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1">
+      <c r="C18" s="77"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:A4 A18:A1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>

--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\shmiggit\code\AmaurySalles\projectwind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F3D54-9313-44C3-B03D-50B1DBDA42D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD04481-F1DB-4AB4-8434-7A29A604CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{662292D5-D2C5-4A6D-89A7-C4306D43B4BE}"/>
   </bookViews>
@@ -1129,132 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,53 +1141,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1333,18 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
@@ -1352,6 +1184,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,8 +1205,167 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2244,15 +2244,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>101634</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>54355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>2849879</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1814470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2282,8 +2282,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12903234" y="4259580"/>
-          <a:ext cx="2748245" cy="1798320"/>
+          <a:off x="12961620" y="4268215"/>
+          <a:ext cx="2689859" cy="1760115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2804C43-F2FA-40C8-82E5-2AEF3D65D292}">
   <dimension ref="B2:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2754,551 +2754,553 @@
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:19" ht="14.4" customHeight="1">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="51"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="47"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="51"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="51"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="47"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="51"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="47"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="51"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="47"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="51"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="47"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="83"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="51"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="47"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="51"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="47"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="83"/>
     </row>
     <row r="13" spans="2:19" ht="15" thickBot="1">
-      <c r="B13" s="52"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="47"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="47"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="83"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="21"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="47"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="21"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="47"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="83"/>
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1">
-      <c r="B17" s="22"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="48"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="19" spans="2:11" hidden="1"/>
     <row r="20" spans="2:11" ht="15" hidden="1" thickBot="1">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="77" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="40" t="s">
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="36"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="6"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="36"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="6"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="47"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="36"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="6"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="83"/>
     </row>
     <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="36"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="6"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="47"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="83"/>
     </row>
     <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="36"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="47"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="36"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="47"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="83"/>
     </row>
     <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="36"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="47"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="83"/>
     </row>
     <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="36"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="47"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="83"/>
     </row>
     <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="36"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="6"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="47"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="83"/>
     </row>
     <row r="31" spans="2:11" ht="15" hidden="1" thickBot="1">
-      <c r="B31" s="36"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="7"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="47"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="78" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="17" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="47"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="83"/>
     </row>
     <row r="33" spans="2:12" hidden="1">
-      <c r="B33" s="36"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="47"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="83"/>
     </row>
     <row r="34" spans="2:12" hidden="1">
-      <c r="B34" s="36"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="47"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="83"/>
     </row>
     <row r="35" spans="2:12" ht="15" hidden="1" thickBot="1">
-      <c r="B35" s="49"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="10"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="48"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="84"/>
     </row>
     <row r="36" spans="2:12" hidden="1"/>
     <row r="37" spans="2:12" hidden="1"/>
     <row r="40" spans="2:12">
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="K40" s="80" t="s">
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="K40" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="81"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="82" t="s">
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="82"/>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" spans="2:12" ht="29.4" customHeight="1">
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I42" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="79" t="s">
+      <c r="K42" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="79" t="s">
+      <c r="L42" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="H44" s="87"/>
-      <c r="K44" s="82" t="s">
+      <c r="H44" s="31"/>
+      <c r="K44" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="82"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="2:12" ht="28.8">
-      <c r="H45" s="87"/>
-      <c r="K45" s="79" t="s">
+      <c r="H45" s="31"/>
+      <c r="K45" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="79" t="s">
+      <c r="L45" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="H46" s="87"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="H47" s="87"/>
-      <c r="K47" s="84"/>
+      <c r="H47" s="31"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="H48" s="87"/>
-      <c r="K48" s="84"/>
+      <c r="H48" s="31"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="8:11">
-      <c r="H49" s="88"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="86"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="8:11">
-      <c r="I50" s="89"/>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" spans="8:11">
-      <c r="I51" s="84"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="8:11">
-      <c r="I52" s="84"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="8:11">
-      <c r="I53" s="82" t="s">
+      <c r="I53" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="J53" s="82"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="8:11">
-      <c r="I54" s="78" t="s">
+      <c r="I54" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="94" t="s">
+      <c r="J54" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="8:11">
-      <c r="I56" s="92" t="s">
+      <c r="I56" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J56" s="93"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="8:11">
-      <c r="I57" s="90" t="s">
+      <c r="I57" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="J57" s="91"/>
+      <c r="J57" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K4:K17"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F21:H31"/>
+    <mergeCell ref="I21:I35"/>
+    <mergeCell ref="J21:J35"/>
+    <mergeCell ref="K21:K35"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="K40:L40"/>
@@ -3315,14 +3317,12 @@
     <mergeCell ref="E20:K20"/>
     <mergeCell ref="B21:B31"/>
     <mergeCell ref="E21:E31"/>
-    <mergeCell ref="F21:H31"/>
-    <mergeCell ref="I21:I35"/>
-    <mergeCell ref="J21:J35"/>
-    <mergeCell ref="K21:K35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="K4:K17"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I56:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3341,88 +3341,88 @@
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10" style="53" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="53" customWidth="1"/>
-    <col min="9" max="14" width="9" style="53" customWidth="1"/>
-    <col min="15" max="15" width="6.21875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="11" customWidth="1"/>
+    <col min="9" max="14" width="9" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61" customWidth="1"/>
     <col min="17" max="17" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1"/>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="66" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3433,43 +3433,43 @@
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="22">
         <v>244.49270000000001</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="22">
         <v>244.9913</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="22">
         <v>345.00099999999998</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="22">
         <v>345.50020000000001</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="22">
         <v>392.88299999999998</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="22">
         <v>393.3827</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="12">
         <v>115</v>
       </c>
       <c r="P4"/>
@@ -3482,22 +3482,22 @@
       <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="2">
@@ -3518,7 +3518,7 @@
       <c r="N5" s="2">
         <v>398.02969999999999</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="12">
         <v>129</v>
       </c>
       <c r="P5"/>
@@ -3531,22 +3531,22 @@
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="2">
@@ -3567,7 +3567,7 @@
       <c r="N6" s="2">
         <v>415.62169999999998</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="12">
         <v>66</v>
       </c>
       <c r="P6"/>
@@ -3580,22 +3580,22 @@
       <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="2">
@@ -3616,86 +3616,86 @@
       <c r="N7" s="2">
         <v>507.12020000000001</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="12">
         <v>106</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1">
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1">
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1">
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1">
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1">
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3735,98 +3735,98 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10" style="53" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="53" customWidth="1"/>
-    <col min="9" max="14" width="9" style="53" customWidth="1"/>
-    <col min="15" max="15" width="6.21875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="11" customWidth="1"/>
+    <col min="9" max="14" width="9" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61" customWidth="1"/>
     <col min="17" max="17" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1"/>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="66" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3835,22 +3835,22 @@
         <v>58</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="2">
@@ -3871,7 +3871,7 @@
       <c r="N4" s="2">
         <v>0.19070000000000001</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="12">
         <v>146</v>
       </c>
       <c r="P4"/>
@@ -3882,22 +3882,22 @@
         <v>58</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="2">
@@ -3918,7 +3918,7 @@
       <c r="N5" s="2">
         <v>0.18360000000000001</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="12">
         <v>62</v>
       </c>
       <c r="P5"/>
@@ -3929,22 +3929,22 @@
         <v>59</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="2">
@@ -3965,7 +3965,7 @@
       <c r="N6" s="2">
         <v>0.1888</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="12">
         <v>55</v>
       </c>
       <c r="P6"/>
@@ -3976,22 +3976,22 @@
         <v>58</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="23" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="2">
@@ -4012,7 +4012,7 @@
       <c r="N7" s="2">
         <v>0.18479999999999999</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="12">
         <v>63</v>
       </c>
       <c r="P7"/>
@@ -4023,22 +4023,22 @@
         <v>58</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="25" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="2"/>
@@ -4047,7 +4047,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="54"/>
+      <c r="O8" s="12"/>
       <c r="P8"/>
       <c r="Q8"/>
     </row>
@@ -4056,19 +4056,19 @@
         <v>58</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="54"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="54"/>
+      <c r="O9" s="12"/>
       <c r="P9"/>
       <c r="Q9"/>
     </row>
@@ -4077,19 +4077,19 @@
         <v>58</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="54"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="54"/>
+      <c r="O10" s="12"/>
       <c r="P10"/>
       <c r="Q10"/>
     </row>
@@ -4098,19 +4098,19 @@
         <v>58</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="54"/>
+      <c r="O11" s="12"/>
       <c r="P11"/>
       <c r="Q11"/>
     </row>
@@ -4119,19 +4119,19 @@
         <v>58</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="54"/>
+      <c r="O12" s="12"/>
       <c r="P12"/>
       <c r="Q12"/>
     </row>
@@ -4140,19 +4140,19 @@
         <v>58</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="54"/>
+      <c r="O13" s="12"/>
       <c r="P13"/>
       <c r="Q13"/>
     </row>
@@ -4161,19 +4161,19 @@
         <v>58</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="54"/>
+      <c r="O14" s="12"/>
       <c r="P14"/>
       <c r="Q14"/>
     </row>
@@ -4182,19 +4182,19 @@
         <v>58</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="54"/>
+      <c r="O15" s="12"/>
       <c r="P15"/>
       <c r="Q15"/>
     </row>
@@ -4203,19 +4203,19 @@
         <v>58</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="54"/>
+      <c r="O16" s="12"/>
       <c r="P16"/>
       <c r="Q16"/>
     </row>
@@ -4224,96 +4224,96 @@
         <v>58</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="54"/>
+      <c r="O17" s="12"/>
       <c r="P17"/>
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1">
-      <c r="C18" s="77"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1">
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1">
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1">
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1">
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
